--- a/backend/exports/redx_export_q_afsar.xlsx
+++ b/backend/exports/redx_export_q_afsar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2025-06-30 17:31:23</t>
+          <t>2025-07-15 12:22:34</t>
         </is>
       </c>
     </row>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>afsar</t>
+          <t>Afsar</t>
         </is>
       </c>
     </row>
@@ -525,22 +525,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jjkj</t>
+          <t>REDX_Portal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jkbhk</t>
+          <t>Mumbai, Maharashtra, India, 400059</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ljhnlj</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-30 11:55:22</t>
+          <t>2025-07-15 05:37:10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -580,27 +580,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ubaid</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Oro0</t>
+          <t>Mr.Gagan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-30 09:57:20</t>
+          <t>2025-07-11 13:49:24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,36 +631,36 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>2.04</v>
+        <v>4.17</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ubaid</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Oro0</t>
+          <t>salman</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-30 09:57:20</t>
+          <t>2025-07-11 07:31:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -691,36 +691,36 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>2.04</v>
+        <v>4.17</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gosling</t>
+          <t>salman</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-30 08:21:31</t>
+          <t>2025-07-11 07:27:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -748,39 +748,39 @@
         <v>30</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>149.5</v>
+        <v>4.17</v>
       </c>
       <c r="N8" t="n">
-        <v>2.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Afsar Khan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>REDX_VMS Portal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mumbai Maharashtra India</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>test</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>REDX</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Gosling</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-30 08:21:31</t>
+          <t>2025-07-11 07:13:23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -808,24 +808,24 @@
         <v>30</v>
       </c>
       <c r="L9" t="n">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>149.5</v>
+        <v>4.17</v>
       </c>
       <c r="N9" t="n">
-        <v>2.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gosling</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-30 08:17:50</t>
+          <t>2025-07-11 07:05:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -871,21 +871,21 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>2.04</v>
+        <v>4.17</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -895,12 +895,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gosling</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-30 08:17:50</t>
+          <t>2025-07-11 07:05:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -931,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>2.04</v>
+        <v>4.17</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
@@ -950,17 +950,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-30 08:05:00</t>
+          <t>2025-07-11 07:05:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -991,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N12" t="n">
-        <v>1.37</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-30 08:05:00</t>
+          <t>2025-07-11 07:05:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1051,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N13" t="n">
-        <v>1.37</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-30 08:05:00</t>
+          <t>2025-07-11 07:05:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1111,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N14" t="n">
-        <v>1.37</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="15">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-30 08:05:00</t>
+          <t>2025-07-11 07:05:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>30</v>
@@ -1171,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N15" t="n">
-        <v>1.37</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-30 08:04:37</t>
+          <t>2025-07-11 07:05:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N16" t="n">
         <v>0.06</v>
@@ -1250,17 +1250,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-30 08:04:37</t>
+          <t>2025-07-11 07:05:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N17" t="n">
         <v>0.06</v>
@@ -1310,17 +1310,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-30 08:04:37</t>
+          <t>2025-07-11 07:05:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N18" t="n">
         <v>0.06</v>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-30 08:04:37</t>
+          <t>2025-07-11 07:05:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N19" t="n">
         <v>0.06</v>
@@ -1430,17 +1430,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-30 08:03:15</t>
+          <t>2025-07-11 07:05:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N20" t="n">
         <v>0.06</v>
@@ -1490,17 +1490,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-30 08:03:15</t>
+          <t>2025-07-11 07:05:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N21" t="n">
         <v>0.06</v>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-30 08:03:15</t>
+          <t>2025-07-11 07:05:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1591,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N22" t="n">
         <v>0.06</v>
@@ -1610,17 +1610,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Merut</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sahil</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-30 08:03:15</t>
+          <t>2025-07-11 07:05:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="N23" t="n">
         <v>0.06</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1675,12 +1675,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Holy</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-30 07:37:22</t>
+          <t>2025-07-11 07:05:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1711,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>4.17</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="25">
@@ -1730,17 +1730,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Huda</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-30 07:25:37</t>
+          <t>2025-07-11 07:05:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1771,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>2.12</v>
+        <v>4.17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Huda</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-30 07:25:37</t>
+          <t>2025-07-11 07:05:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1831,16 +1831,16 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>2.12</v>
+        <v>4.17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1850,17 +1850,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ottoman</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-30 07:24:41</t>
+          <t>2025-07-11 07:05:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1891,16 +1891,16 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>2.12</v>
+        <v>4.17</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1910,17 +1910,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ottoman</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-30 07:24:41</t>
+          <t>2025-07-11 07:05:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1951,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>2.12</v>
+        <v>4.17</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>linux</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-30 07:19:16</t>
+          <t>2025-07-11 07:05:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2010,13 +2010,11 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M29" t="n">
+        <v>4.17</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
@@ -2037,12 +2035,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>linux</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-30 07:19:15</t>
+          <t>2025-07-11 07:05:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2072,13 +2070,11 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M30" t="n">
+        <v>4.17</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
@@ -2099,12 +2095,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>linux</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-30 07:18:53</t>
+          <t>2025-07-11 07:05:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2134,13 +2130,11 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M31" t="n">
+        <v>4.17</v>
       </c>
       <c r="N31" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32">
@@ -2161,12 +2155,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>linux</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-30 07:18:53</t>
+          <t>2025-07-11 07:05:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2196,13 +2190,11 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M32" t="n">
+        <v>4.17</v>
       </c>
       <c r="N32" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33">
@@ -2218,17 +2210,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>salman</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-30 07:17:35</t>
+          <t>2025-07-11 07:05:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2258,13 +2250,11 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M33" t="n">
+        <v>4.17</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34">
@@ -2280,17 +2270,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>salman</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-30 07:17:35</t>
+          <t>2025-07-11 07:05:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2320,13 +2310,11 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M34" t="n">
+        <v>4.17</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="35">
@@ -2342,17 +2330,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Prem</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-30 07:17:12</t>
+          <t>2025-07-11 07:05:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2382,13 +2370,11 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M35" t="n">
+        <v>4.17</v>
       </c>
       <c r="N35" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="36">
@@ -2404,17 +2390,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Prem</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-30 07:17:12</t>
+          <t>2025-07-11 07:05:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2444,13 +2430,11 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M36" t="n">
+        <v>4.17</v>
       </c>
       <c r="N36" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="37">
@@ -2466,17 +2450,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-30 07:14:46</t>
+          <t>2025-07-11 07:05:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2506,13 +2490,11 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M37" t="n">
+        <v>4.17</v>
       </c>
       <c r="N37" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38">
@@ -2528,17 +2510,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-30 07:14:46</t>
+          <t>2025-07-11 07:05:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2568,13 +2550,11 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M38" t="n">
+        <v>4.17</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
@@ -2590,17 +2570,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-30 07:11:57</t>
+          <t>2025-07-11 07:05:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2630,13 +2610,11 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M39" t="n">
+        <v>4.17</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="40">
@@ -2652,17 +2630,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-30 07:11:57</t>
+          <t>2025-07-11 07:05:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2692,13 +2670,11 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M40" t="n">
+        <v>4.17</v>
       </c>
       <c r="N40" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="41">
@@ -2714,17 +2690,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-30 06:59:29</t>
+          <t>2025-07-11 07:05:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2754,13 +2730,11 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M41" t="n">
+        <v>4.17</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="42">
@@ -2776,7 +2750,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2786,7 +2760,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-30 06:56:36</t>
+          <t>2025-07-11 07:05:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2816,13 +2790,11 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M42" t="n">
+        <v>4.17</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="43">
@@ -2833,12 +2805,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2848,7 +2820,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-30 06:48:34</t>
+          <t>2025-07-11 07:05:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2878,13 +2850,11 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M43" t="n">
+        <v>4.17</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44">
@@ -2910,7 +2880,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-30 06:29:04</t>
+          <t>2025-07-11 07:05:38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2940,13 +2910,11 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M44" t="n">
+        <v>4.17</v>
       </c>
       <c r="N44" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="45">
@@ -2972,7 +2940,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-30 06:29:04</t>
+          <t>2025-07-11 07:05:36</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3002,13 +2970,11 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M45" t="n">
+        <v>4.17</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
@@ -3034,7 +3000,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-30 06:29:04</t>
+          <t>2025-07-11 07:05:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3064,13 +3030,11 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M46" t="n">
+        <v>4.17</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
@@ -3096,7 +3060,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-30 06:25:47</t>
+          <t>2025-07-11 07:05:04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3126,13 +3090,11 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M47" t="n">
+        <v>4.17</v>
       </c>
       <c r="N47" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="48">
@@ -3158,7 +3120,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-30 06:25:47</t>
+          <t>2025-07-11 07:05:03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3188,13 +3150,11 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M48" t="n">
+        <v>4.17</v>
       </c>
       <c r="N48" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="49">
@@ -3220,7 +3180,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-30 06:25:47</t>
+          <t>2025-07-11 07:03:10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3250,13 +3210,11 @@
       <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M49" t="n">
+        <v>4.17</v>
       </c>
       <c r="N49" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="50">
@@ -3277,12 +3235,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Gosling</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-30 06:24:31</t>
+          <t>2025-07-11 06:46:24</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3312,13 +3270,11 @@
       <c r="L50" t="n">
         <v>1</v>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M50" t="n">
+        <v>4.17</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="51">
@@ -3344,7 +3300,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:44</t>
+          <t>2025-07-10 06:15:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3374,13 +3330,11 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M51" t="n">
+        <v>4.17</v>
       </c>
       <c r="N51" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="52">
@@ -3406,7 +3360,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:44</t>
+          <t>2025-07-10 05:42:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3436,39 +3390,37 @@
       <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M52" t="n">
+        <v>4.17</v>
       </c>
       <c r="N52" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t xml:space="preserve"> Afsar</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t xml:space="preserve"> REDX</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t xml:space="preserve"> Pune</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t xml:space="preserve"> Mr.Sachin</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:26</t>
+          <t>2025-07-10 05:40:09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3498,13 +3450,11 @@
       <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M53" t="n">
+        <v>4.17</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="54">
@@ -3530,7 +3480,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:22</t>
+          <t>2025-07-09 12:51:21</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3540,7 +3490,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>5MP (3072x1728)</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3558,15 +3508,13 @@
         <v>30</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="M54" t="n">
+        <v>833.2</v>
       </c>
       <c r="N54" t="n">
-        <v>0.07000000000000001</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="55">
@@ -3592,7 +3540,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:22</t>
+          <t>2025-07-09 12:51:14</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3602,7 +3550,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>5MP (3072x1728)</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3620,15 +3568,13 @@
         <v>30</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M55" t="n">
+        <v>416.6</v>
       </c>
       <c r="N55" t="n">
-        <v>0.07000000000000001</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="56">
@@ -3654,7 +3600,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:21</t>
+          <t>2025-07-09 12:50:41</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3664,7 +3610,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>8MP (3840x2160)</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3682,15 +3628,13 @@
         <v>30</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="M56" t="n">
+        <v>333.3</v>
       </c>
       <c r="N56" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="57">
@@ -3716,7 +3660,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:21</t>
+          <t>2025-07-09 12:50:26</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3744,15 +3688,13 @@
         <v>30</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="M57" t="n">
+        <v>208.3</v>
       </c>
       <c r="N57" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="58">
@@ -3778,7 +3720,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:19</t>
+          <t>2025-07-09 12:50:20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3806,15 +3748,13 @@
         <v>30</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="M58" t="n">
+        <v>41.66</v>
       </c>
       <c r="N58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -3840,7 +3780,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:19</t>
+          <t>2025-07-09 12:49:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3870,13 +3810,11 @@
       <c r="L59" t="n">
         <v>1</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M59" t="n">
+        <v>4.17</v>
       </c>
       <c r="N59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="60">
@@ -3892,7 +3830,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3902,7 +3840,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:11</t>
+          <t>2025-07-09 12:49:40</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3912,7 +3850,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>5MP (2592x1944)</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3924,21 +3862,19 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K60" t="n">
         <v>30</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M60" t="n">
+        <v>416.6</v>
       </c>
       <c r="N60" t="n">
-        <v>0.03</v>
+        <v>134.98</v>
       </c>
     </row>
     <row r="61">
@@ -3954,7 +3890,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3964,7 +3900,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:11</t>
+          <t>2025-07-09 12:49:34</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3974,7 +3910,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3986,21 +3922,19 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K61" t="n">
         <v>30</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1000</v>
       </c>
       <c r="N61" t="n">
-        <v>0.03</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
@@ -4016,7 +3950,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4026,7 +3960,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-30 06:23:00</t>
+          <t>2025-07-09 12:31:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4036,7 +3970,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -4048,27 +3982,25 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K62" t="n">
         <v>30</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1000</v>
       </c>
       <c r="N62" t="n">
-        <v>0.01</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Afsar</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4078,17 +4010,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Prime</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-30 06:08:55</t>
+          <t>2025-07-09 12:30:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4098,7 +4030,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -4116,21 +4048,19 @@
         <v>30</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1000</v>
       </c>
       <c r="N63" t="n">
-        <v>0.03</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Afsar</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4140,22 +4070,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Prime</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-30 06:08:55</t>
+          <t>2025-07-09 12:30:29</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Pelco</t>
+          <t>Honeywell</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4178,15 +4108,13 @@
         <v>30</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M64" t="n">
+        <v>416.6</v>
       </c>
       <c r="N64" t="n">
-        <v>0.03</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="65">
@@ -4212,7 +4140,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-30 05:59:19</t>
+          <t>2025-07-09 12:30:24</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4240,15 +4168,13 @@
         <v>30</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="M65" t="n">
+        <v>41.66</v>
       </c>
       <c r="N65" t="n">
-        <v>0.01</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4259,22 +4185,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>tthrhr</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>hrhr</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-30 05:53:12</t>
+          <t>2025-07-09 12:30:14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4304,13 +4230,11 @@
       <c r="L66" t="n">
         <v>1</v>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M66" t="n">
+        <v>4.17</v>
       </c>
       <c r="N66" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="67">
@@ -4321,22 +4245,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>tthrhr</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>hrhr</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-30 05:53:12</t>
+          <t>2025-07-09 12:05:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4364,15 +4288,13 @@
         <v>30</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>4000</v>
+      </c>
+      <c r="M67" t="n">
+        <v>16664</v>
       </c>
       <c r="N67" t="n">
-        <v>0.03</v>
+        <v>224.96</v>
       </c>
     </row>
     <row r="68">
@@ -4383,22 +4305,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>tthrhr</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>hrhr</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-30 05:52:54</t>
+          <t>2025-07-09 12:05:38</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4426,15 +4348,13 @@
         <v>30</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1666.4</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="69">
@@ -4450,22 +4370,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>hrhr</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-30 05:51:30</t>
+          <t>2025-07-09 12:05:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Zicom</t>
+          <t>Honeywell</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4488,15 +4408,13 @@
         <v>30</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2083</v>
       </c>
       <c r="N69" t="n">
-        <v>0.01</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="70">
@@ -4512,17 +4430,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hrhr</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-30 05:51:16</t>
+          <t>2025-07-09 12:05:17</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4550,41 +4468,39 @@
         <v>30</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="M70" t="n">
+        <v>833.2</v>
       </c>
       <c r="N70" t="n">
-        <v>0.01</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Talib</t>
+          <t>Afsar Khan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Gufran</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-30 05:48:28</t>
+          <t>2025-07-09 12:03:39</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4612,15 +4528,13 @@
         <v>30</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M71" t="n">
+        <v>416.6</v>
       </c>
       <c r="N71" t="n">
-        <v>0.01</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="72">
@@ -4636,17 +4550,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bangluru, Karnataka</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Mr.Saurabh</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-30 05:47:07</t>
+          <t>2025-07-09 10:26:19</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4676,13 +4590,11 @@
       <c r="L72" t="n">
         <v>1</v>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M72" t="n">
+        <v>4.17</v>
       </c>
       <c r="N72" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="73">
@@ -4698,17 +4610,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mr.Gagan</t>
+          <t>Mr.Saurabh</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-30 05:41:31</t>
+          <t>2025-07-09 09:48:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4738,13 +4650,11 @@
       <c r="L73" t="n">
         <v>1</v>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M73" t="n">
+        <v>4.17</v>
       </c>
       <c r="N73" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="74">
@@ -4760,17 +4670,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mr.Gagan</t>
+          <t>Mr.Nitin</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-06-30 05:34:04</t>
+          <t>2025-07-09 05:16:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4800,19 +4710,17 @@
       <c r="L74" t="n">
         <v>1</v>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M74" t="n">
+        <v>4.17</v>
       </c>
       <c r="N74" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4827,12 +4735,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Sachin</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-06-30 05:11:02</t>
+          <t>2025-07-03 13:31:12</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4862,13 +4770,11 @@
       <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M75" t="n">
+        <v>4.17</v>
       </c>
       <c r="N75" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="76">
@@ -4879,12 +4785,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4894,7 +4800,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-06-27 13:35:22</t>
+          <t>2025-07-02 10:00:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4922,41 +4828,39 @@
         <v>30</v>
       </c>
       <c r="L76" t="n">
-        <v>100</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4.17</v>
       </c>
       <c r="N76" t="n">
-        <v>1.48</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-06-27 13:35:17</t>
+          <t>2025-07-02 09:59:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4984,41 +4888,39 @@
         <v>30</v>
       </c>
       <c r="L77" t="n">
-        <v>10</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4.17</v>
       </c>
       <c r="N77" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REDX</t>
+          <t>REDX_VMS Portal</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Munna Bhai</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-06-27 13:35:07</t>
+          <t>2025-07-01 13:52:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5048,19 +4950,17 @@
       <c r="L78" t="n">
         <v>1</v>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M78" t="n">
+        <v>4.07</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5070,7 +4970,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5080,7 +4980,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-06-27 12:24:18</t>
+          <t>2025-07-01 11:58:11</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5102,21 +5002,19 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>30</v>
       </c>
       <c r="L79" t="n">
-        <v>100</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4.07</v>
       </c>
       <c r="N79" t="n">
-        <v>530.84</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="80">
@@ -5142,7 +5040,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-06-27 12:24:18</t>
+          <t>2025-07-01 11:57:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5152,7 +5050,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>5MP (3072x1728)</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -5160,7 +5058,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>H265</t>
+          <t>H264</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -5170,15 +5068,13 @@
         <v>30</v>
       </c>
       <c r="L80" t="n">
-        <v>100</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="M80" t="n">
+        <v>600</v>
       </c>
       <c r="N80" t="n">
-        <v>530.84</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="81">
@@ -5204,7 +5100,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-06-27 12:07:06</t>
+          <t>2025-07-01 11:54:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5214,7 +5110,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>5MP (3072x1728)</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -5222,25 +5118,23 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>H265</t>
+          <t>H264</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>30</v>
       </c>
       <c r="L81" t="n">
-        <v>100</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="M81" t="n">
+        <v>600</v>
       </c>
       <c r="N81" t="n">
-        <v>530.84</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="82">
@@ -5266,7 +5160,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-06-27 12:07:06</t>
+          <t>2025-07-01 11:53:10</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5276,7 +5170,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -5284,7 +5178,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>H265</t>
+          <t>H264</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -5294,15 +5188,13 @@
         <v>30</v>
       </c>
       <c r="L82" t="n">
-        <v>100</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5859.38</v>
       </c>
       <c r="N82" t="n">
-        <v>530.84</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -5328,7 +5220,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-06-27 12:06:23</t>
+          <t>2025-07-01 11:51:17</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5338,7 +5230,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -5346,41 +5238,39 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>H265</t>
+          <t>H264</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>30</v>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>19.53</v>
       </c>
       <c r="N83" t="n">
-        <v>928.97</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5390,7 +5280,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-06-27 12:06:23</t>
+          <t>2025-07-01 11:21:47</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5400,7 +5290,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>5MP (2592x1944)</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -5412,7 +5302,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K84" t="n">
         <v>30</v>
@@ -5420,29 +5310,27 @@
       <c r="L84" t="n">
         <v>100</v>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M84" t="n">
+        <v>9765.620000000001</v>
       </c>
       <c r="N84" t="n">
-        <v>928.97</v>
+        <v>3164.06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5452,7 +5340,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-06-27 12:05:26</t>
+          <t>2025-07-01 11:21:40</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5462,7 +5350,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -5480,31 +5368,29 @@
         <v>30</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M85" t="n">
+        <v>9765.620000000001</v>
       </c>
       <c r="N85" t="n">
-        <v>2.65</v>
+        <v>3164.06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5514,7 +5400,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-06-27 12:04:02</t>
+          <t>2025-07-01 11:21:35</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5524,7 +5410,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -5544,29 +5430,27 @@
       <c r="L86" t="n">
         <v>100</v>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M86" t="n">
+        <v>976.5599999999999</v>
       </c>
       <c r="N86" t="n">
-        <v>265.42</v>
+        <v>316.41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5576,7 +5460,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-06-27 12:03:10</t>
+          <t>2025-07-01 11:04:03</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5586,7 +5470,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -5606,29 +5490,27 @@
       <c r="L87" t="n">
         <v>100</v>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M87" t="n">
+        <v>976.5599999999999</v>
       </c>
       <c r="N87" t="n">
-        <v>265.42</v>
+        <v>316.41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5638,7 +5520,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-06-27 12:02:59</t>
+          <t>2025-07-01 11:03:10</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5668,39 +5550,37 @@
       <c r="L88" t="n">
         <v>100</v>
       </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M88" t="n">
+        <v>406.84</v>
       </c>
       <c r="N88" t="n">
-        <v>268.08</v>
+        <v>131.81</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-06-27 12:02:59</t>
+          <t>2025-07-01 10:59:55</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5710,7 +5590,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -5730,13 +5610,11 @@
       <c r="L89" t="n">
         <v>1</v>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M89" t="n">
+        <v>9.77</v>
       </c>
       <c r="N89" t="n">
-        <v>268.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="90">
@@ -5747,7 +5625,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5757,12 +5635,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-06-27 11:58:01</t>
+          <t>2025-07-01 10:40:32</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5772,7 +5650,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -5784,21 +5662,19 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>30</v>
       </c>
       <c r="L90" t="n">
-        <v>100</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>9.77</v>
       </c>
       <c r="N90" t="n">
-        <v>265.42</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="91">
@@ -5809,22 +5685,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-06-27 11:53:40</t>
+          <t>2025-07-01 07:47:41</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5834,11 +5710,11 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -5846,21 +5722,19 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K91" t="n">
         <v>30</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="M91" t="n">
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>0.11</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="92">
@@ -5871,22 +5745,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mumbai Maharashtra India</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-06-27 11:50:22</t>
+          <t>2025-07-01 07:46:19</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5916,13 +5790,11 @@
       <c r="L92" t="n">
         <v>1</v>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M92" t="n">
+        <v>4.17</v>
       </c>
       <c r="N92" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="93">
@@ -5933,22 +5805,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-06-27 11:49:43</t>
+          <t>2025-07-01 07:46:04</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5978,13 +5850,11 @@
       <c r="L93" t="n">
         <v>1</v>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M93" t="n">
+        <v>1.06</v>
       </c>
       <c r="N93" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="94">
@@ -5995,22 +5865,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>REDX_VMS Portal</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-06-27 11:47:36</t>
+          <t>2025-07-01 07:45:36</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6040,19 +5910,17 @@
       <c r="L94" t="n">
         <v>1</v>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M94" t="n">
+        <v>4.17</v>
       </c>
       <c r="N94" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>sggfg</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6062,17 +5930,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Afsar Khan</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-06-27 11:45:52</t>
+          <t>2025-07-01 07:24:35</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6102,13 +5970,11 @@
       <c r="L95" t="n">
         <v>1</v>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M95" t="n">
+        <v>4.17</v>
       </c>
       <c r="N95" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="96">
@@ -6129,12 +5995,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Alala</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-06-27 11:44:30</t>
+          <t>2025-07-01 07:21:18</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6144,11 +6010,11 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -6156,21 +6022,19 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="M96" t="n">
+        <v>412.32</v>
       </c>
       <c r="N96" t="n">
-        <v>3.8</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="97">
@@ -6191,12 +6055,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Alala</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-06-27 11:43:56</t>
+          <t>2025-07-01 07:21:18</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6206,11 +6070,11 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -6218,21 +6082,19 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="M97" t="n">
+        <v>412.32</v>
       </c>
       <c r="N97" t="n">
-        <v>4.76</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="98">
@@ -6253,12 +6115,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Alala</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-06-27 11:40:34</t>
+          <t>2025-07-01 07:21:02</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6268,11 +6130,11 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -6280,21 +6142,19 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="M98" t="n">
+        <v>54.21</v>
       </c>
       <c r="N98" t="n">
-        <v>3.8</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="99">
@@ -6315,12 +6175,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Alala</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-06-27 11:40:06</t>
+          <t>2025-07-01 07:21:02</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6330,11 +6190,11 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -6342,21 +6202,19 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="M99" t="n">
+        <v>54.21</v>
       </c>
       <c r="N99" t="n">
-        <v>2.38</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="100">
@@ -6377,12 +6235,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Boman</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-06-27 11:39:32</t>
+          <t>2025-07-01 07:19:33</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6392,11 +6250,11 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -6404,21 +6262,19 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="M100" t="n">
+        <v>54.21</v>
       </c>
       <c r="N100" t="n">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="101">
@@ -6439,12 +6295,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Boman</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2025-06-27 11:38:45</t>
+          <t>2025-07-01 07:19:33</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6454,11 +6310,11 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -6466,21 +6322,19 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="M101" t="n">
+        <v>54.21</v>
       </c>
       <c r="N101" t="n">
-        <v>0.48</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="102">
@@ -6501,12 +6355,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Advocate Tariq</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2025-06-27 11:38:08</t>
+          <t>2025-07-01 07:06:49</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -6520,29 +6374,27 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>H265</t>
+          <t>H264</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M102" t="n">
+        <v>12</v>
       </c>
       <c r="N102" t="n">
-        <v>1.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="103">
@@ -6558,17 +6410,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Musab</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2025-06-27 11:37:59</t>
+          <t>2025-07-01 07:02:21</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6582,7 +6434,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -6590,27 +6442,25 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>30</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="M103" t="n">
+        <v>42</v>
       </c>
       <c r="N103" t="n">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6625,12 +6475,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Usman</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2025-06-27 11:37:50</t>
+          <t>2025-06-30 13:42:42</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6640,11 +6490,11 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -6658,21 +6508,19 @@
         <v>30</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>81</v>
+      </c>
+      <c r="M104" t="n">
+        <v>10266.77</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03</v>
+        <v>3326.43</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6687,12 +6535,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Usman</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2025-06-27 11:37:50</t>
+          <t>2025-06-30 13:42:42</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -6702,11 +6550,11 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -6720,21 +6568,19 @@
         <v>30</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>135</v>
+      </c>
+      <c r="M105" t="n">
+        <v>10266.77</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03</v>
+        <v>3326.43</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6749,22 +6595,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Usman</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2025-06-27 11:37:46</t>
+          <t>2025-06-30 13:42:42</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Honeywell</t>
+          <t>Bosch</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>6MP (3072x2048)</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -6776,27 +6622,25 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K106" t="n">
         <v>30</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>219</v>
+      </c>
+      <c r="M106" t="n">
+        <v>10266.77</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03</v>
+        <v>3326.43</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6811,12 +6655,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Fareed</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2025-06-27 11:37:34</t>
+          <t>2025-06-30 13:41:02</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6826,7 +6670,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2MP (1280x1280)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -6844,21 +6688,19 @@
         <v>30</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>81</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2874.02</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6873,12 +6715,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Fareed</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2025-06-27 11:37:20</t>
+          <t>2025-06-30 13:41:02</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6888,7 +6730,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -6906,21 +6748,19 @@
         <v>30</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>135</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2874.02</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Afsar Khan</t>
+          <t>Afsar</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6935,12 +6775,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2025-06-27 11:37:08</t>
+          <t>2025-06-30 13:25:10</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6950,7 +6790,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -6970,13 +6810,11 @@
       <c r="L109" t="n">
         <v>1</v>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M109" t="n">
+        <v>0.16</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -6992,17 +6830,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Pune, Maharashtra India</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Sahil</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2025-06-27 11:37:00</t>
+          <t>2025-06-30 13:24:28</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7024,21 +6862,19 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K110" t="n">
         <v>30</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="111">
@@ -7054,17 +6890,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Pune, Maharashtra India</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Sahil</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2025-06-27 11:35:32</t>
+          <t>2025-06-30 13:24:28</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7074,7 +6910,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>6MP (2560x2560)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -7094,13 +6930,11 @@
       <c r="L111" t="n">
         <v>1</v>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M111" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="112">
@@ -7116,17 +6950,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Pune, Maharashtra India</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Sahil</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2025-06-27 11:35:09</t>
+          <t>2025-06-30 13:24:28</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7136,7 +6970,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>6MP (2560x2560)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -7144,7 +6978,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>H264+</t>
+          <t>H265</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -7154,15 +6988,13 @@
         <v>30</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="113">
@@ -7178,17 +7010,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Faisal</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2025-06-27 11:34:29</t>
+          <t>2025-06-30 13:15:14</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7198,7 +7030,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>5MP (2560x1920)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -7210,21 +7042,19 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K113" t="n">
         <v>30</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="114">
@@ -7240,17 +7070,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Faisal</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2025-06-27 11:32:59</t>
+          <t>2025-06-30 13:15:14</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7280,13 +7110,11 @@
       <c r="L114" t="n">
         <v>1</v>
       </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M114" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="115">
@@ -7302,17 +7130,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Faisal</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2025-06-27 11:03:23</t>
+          <t>2025-06-30 13:15:14</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7322,11 +7150,11 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>12MP (4000x3072)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -7334,21 +7162,19 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
         <v>30</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N115" t="n">
-        <v>2.82</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="116">
@@ -7364,17 +7190,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Haroon</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2025-06-27 11:03:21</t>
+          <t>2025-06-30 13:13:44</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7384,11 +7210,11 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>12MP (4000x3072)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -7402,15 +7228,13 @@
         <v>30</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N116" t="n">
-        <v>2.82</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="117">
@@ -7426,17 +7250,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Haroon</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2025-06-27 11:02:48</t>
+          <t>2025-06-30 13:13:44</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -7446,11 +7270,11 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -7458,7 +7282,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K117" t="n">
         <v>30</v>
@@ -7466,13 +7290,11 @@
       <c r="L117" t="n">
         <v>1</v>
       </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M117" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N117" t="n">
-        <v>2.82</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="118">
@@ -7488,17 +7310,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Haroon</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2025-06-27 11:01:06</t>
+          <t>2025-06-30 13:13:44</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -7508,11 +7330,11 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -7520,21 +7342,19 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>30</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1421.35</v>
       </c>
       <c r="N118" t="n">
-        <v>1.13</v>
+        <v>460.52</v>
       </c>
     </row>
     <row r="119">
@@ -7550,17 +7370,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Jagrala</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2025-06-27 11:00:09</t>
+          <t>2025-06-30 13:10:22</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -7570,11 +7390,11 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -7588,15 +7408,13 @@
         <v>30</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1420</v>
       </c>
       <c r="N119" t="n">
-        <v>0.86</v>
+        <v>460.08</v>
       </c>
     </row>
     <row r="120">
@@ -7612,17 +7430,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Jagrala</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2025-06-27 10:58:47</t>
+          <t>2025-06-30 13:10:22</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -7632,11 +7450,11 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -7644,21 +7462,19 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M120" t="n">
+        <v>1420</v>
       </c>
       <c r="N120" t="n">
-        <v>0.63</v>
+        <v>460.08</v>
       </c>
     </row>
     <row r="121">
@@ -7674,17 +7490,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Jagrala</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2025-06-27 10:58:37</t>
+          <t>2025-06-30 13:10:22</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -7694,11 +7510,11 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -7706,21 +7522,19 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>30</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1420</v>
       </c>
       <c r="N121" t="n">
-        <v>0.86</v>
+        <v>460.08</v>
       </c>
     </row>
     <row r="122">
@@ -7736,17 +7550,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Jagrala</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2025-06-27 10:58:32</t>
+          <t>2025-06-30 12:45:18</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -7756,11 +7570,11 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -7768,21 +7582,19 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K122" t="n">
         <v>30</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1420</v>
       </c>
       <c r="N122" t="n">
-        <v>0.61</v>
+        <v>460.08</v>
       </c>
     </row>
     <row r="123">
@@ -7798,17 +7610,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Jagrala</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2025-06-27 10:58:23</t>
+          <t>2025-06-30 12:45:18</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -7818,11 +7630,11 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -7838,13 +7650,11 @@
       <c r="L123" t="n">
         <v>1</v>
       </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M123" t="n">
+        <v>1420</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04</v>
+        <v>460.08</v>
       </c>
     </row>
     <row r="124">
@@ -7860,17 +7670,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Jagrala</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2025-06-27 10:58:11</t>
+          <t>2025-06-30 12:45:18</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -7880,11 +7690,11 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -7892,21 +7702,19 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>30</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1420</v>
       </c>
       <c r="N124" t="n">
-        <v>0.72</v>
+        <v>460.08</v>
       </c>
     </row>
     <row r="125">
@@ -7922,17 +7730,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Saurabh</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2025-06-27 10:57:07</t>
+          <t>2025-06-30 12:27:20</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -7942,11 +7750,11 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>5MP (3072x1728)</t>
+          <t>12MP (4000x3000)</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -7960,15 +7768,13 @@
         <v>30</v>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1290</v>
       </c>
       <c r="N125" t="n">
-        <v>0.86</v>
+        <v>417.96</v>
       </c>
     </row>
     <row r="126">
@@ -7984,17 +7790,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Saurabh</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2025-06-27 10:53:48</t>
+          <t>2025-06-30 12:27:20</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8012,11 +7818,11 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>H264</t>
+          <t>H265</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>30</v>
@@ -8024,13 +7830,11 @@
       <c r="L126" t="n">
         <v>1</v>
       </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="M126" t="n">
+        <v>1290</v>
       </c>
       <c r="N126" t="n">
-        <v>2.99</v>
+        <v>417.96</v>
       </c>
     </row>
     <row r="127">
@@ -8046,17 +7850,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Mr.Nitin</t>
+          <t>Mr.Saurabh</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2025-06-27 10:52:31</t>
+          <t>2025-06-30 12:27:20</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -8066,7 +7870,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>12MP (4000x3000)</t>
+          <t>5MP (2560x1920)</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -8074,25 +7878,23 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>H264</t>
+          <t>H265</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
         <v>30</v>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1290</v>
       </c>
       <c r="N127" t="n">
-        <v>6.64</v>
+        <v>417.96</v>
       </c>
     </row>
     <row r="128">
@@ -8108,7 +7910,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai Maharashtra India</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8118,7 +7920,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2025-06-27 10:51:54</t>
+          <t>2025-06-30 12:24:42</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -8146,1937 +7948,13 @@
         <v>30</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="M128" t="n">
+        <v>990</v>
       </c>
       <c r="N128" t="n">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:47:37</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>25</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="n">
-        <v>30</v>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:47:19</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>25</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>H264</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>24</v>
-      </c>
-      <c r="K130" t="n">
-        <v>30</v>
-      </c>
-      <c r="L130" t="n">
-        <v>25</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
-        <v>8.779999999999999</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:47:18</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>25</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>H264</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>24</v>
-      </c>
-      <c r="K131" t="n">
-        <v>30</v>
-      </c>
-      <c r="L131" t="n">
-        <v>25</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
-        <v>8.779999999999999</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:46:52</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>25</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>H264</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>24</v>
-      </c>
-      <c r="K132" t="n">
-        <v>30</v>
-      </c>
-      <c r="L132" t="n">
-        <v>25</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
-        <v>8.779999999999999</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:46:51</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>25</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>H264</t>
-        </is>
-      </c>
-      <c r="J133" t="n">
-        <v>24</v>
-      </c>
-      <c r="K133" t="n">
-        <v>30</v>
-      </c>
-      <c r="L133" t="n">
-        <v>25</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
-        <v>8.779999999999999</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:46:49</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>25</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>H264</t>
-        </is>
-      </c>
-      <c r="J134" t="n">
-        <v>24</v>
-      </c>
-      <c r="K134" t="n">
-        <v>30</v>
-      </c>
-      <c r="L134" t="n">
-        <v>25</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
-        <v>8.779999999999999</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:46:35</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>25</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J135" t="n">
-        <v>24</v>
-      </c>
-      <c r="K135" t="n">
-        <v>30</v>
-      </c>
-      <c r="L135" t="n">
-        <v>25</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
-        <v>8.779999999999999</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:46:25</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>25</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>24</v>
-      </c>
-      <c r="K136" t="n">
-        <v>30</v>
-      </c>
-      <c r="L136" t="n">
-        <v>2</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:46:01</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>25</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>5</v>
-      </c>
-      <c r="K137" t="n">
-        <v>30</v>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:45:55</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>25</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J138" t="n">
-        <v>4</v>
-      </c>
-      <c r="K138" t="n">
-        <v>30</v>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:45:48</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>25</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J139" t="n">
-        <v>2</v>
-      </c>
-      <c r="K139" t="n">
-        <v>30</v>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Afsar</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Mumbai Maharashtra India</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:45:29</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>25</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
-      <c r="K140" t="n">
-        <v>30</v>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:47</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>25</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J141" t="n">
-        <v>1</v>
-      </c>
-      <c r="K141" t="n">
-        <v>30</v>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:47</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H142" t="n">
-        <v>25</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="n">
-        <v>30</v>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:46</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>25</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>30</v>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:46</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>25</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J144" t="n">
-        <v>1</v>
-      </c>
-      <c r="K144" t="n">
-        <v>30</v>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:46</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>25</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>30</v>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:46</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>25</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
-      <c r="K146" t="n">
-        <v>30</v>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:46</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>25</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
-      <c r="K147" t="n">
-        <v>30</v>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:46</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>25</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>1</v>
-      </c>
-      <c r="K148" t="n">
-        <v>30</v>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:45</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>25</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
-      <c r="K149" t="n">
-        <v>30</v>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:45</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>25</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J150" t="n">
-        <v>1</v>
-      </c>
-      <c r="K150" t="n">
-        <v>30</v>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:45</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>25</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J151" t="n">
-        <v>1</v>
-      </c>
-      <c r="K151" t="n">
-        <v>30</v>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:45</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>25</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>1</v>
-      </c>
-      <c r="K152" t="n">
-        <v>30</v>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:44</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H153" t="n">
-        <v>25</v>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J153" t="n">
-        <v>1</v>
-      </c>
-      <c r="K153" t="n">
-        <v>30</v>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:42</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>25</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
-        <v>1</v>
-      </c>
-      <c r="K154" t="n">
-        <v>30</v>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:41</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H155" t="n">
-        <v>25</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J155" t="n">
-        <v>1</v>
-      </c>
-      <c r="K155" t="n">
-        <v>30</v>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:31:31</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H156" t="n">
-        <v>25</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J156" t="n">
-        <v>1</v>
-      </c>
-      <c r="K156" t="n">
-        <v>30</v>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:29:26</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>25</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J157" t="n">
-        <v>1</v>
-      </c>
-      <c r="K157" t="n">
-        <v>30</v>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:26:51</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>25</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J158" t="n">
-        <v>1</v>
-      </c>
-      <c r="K158" t="n">
-        <v>30</v>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Afsar Khan</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>REDX_VMS Portal</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Mr.Nitin</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2025-06-27 09:44:21</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Honeywell</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>5MP (2560x1920)</t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>25</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>H265</t>
-        </is>
-      </c>
-      <c r="J159" t="n">
-        <v>1</v>
-      </c>
-      <c r="K159" t="n">
-        <v>30</v>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
-        <v>0.16</v>
+        <v>320.76</v>
       </c>
     </row>
   </sheetData>
